--- a/projects/va_emerging_tech/data/data_H2_VFB.xlsx
+++ b/projects/va_emerging_tech/data/data_H2_VFB.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F70CAEF-6470-4CAD-891C-415C4D5D1D6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB65C081-CD89-4DBF-A281-C7BCAF5B3C71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="6840" windowWidth="29040" windowHeight="15840" tabRatio="941" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Connections" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
   <si>
     <t>connection</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>CapacityCreditIncr</t>
+  </si>
+  <si>
+    <t>fuel2</t>
+  </si>
+  <si>
+    <t>Efficiency2</t>
   </si>
 </sst>
 </file>
@@ -576,25 +582,25 @@
       <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.4609375" customWidth="1"/>
+    <col min="15" max="15" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.07421875" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +656,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -720,25 +726,25 @@
       <selection activeCell="R1" sqref="R1:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.07421875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -797,7 +803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -856,7 +862,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -873,7 +879,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -890,7 +896,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -907,7 +913,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -924,7 +930,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -941,7 +947,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -966,22 +972,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3046875" customWidth="1"/>
+    <col min="4" max="4" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -989,34 +996,37 @@
         <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -1027,7 +1037,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>45</v>
@@ -1041,13 +1051,16 @@
       <c r="H2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1059,24 +1072,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69140625" customWidth="1"/>
+    <col min="6" max="6" width="12.765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -1090,22 +1104,25 @@
         <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
@@ -1119,18 +1136,21 @@
         <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1148,23 +1168,23 @@
       <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.07421875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1202,7 +1222,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1254,20 +1274,20 @@
       <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1299,7 +1319,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>34</v>
       </c>

--- a/projects/va_emerging_tech/data/data_H2_VFB.xlsx
+++ b/projects/va_emerging_tech/data/data_H2_VFB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB65C081-CD89-4DBF-A281-C7BCAF5B3C71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0EA7F6-CC74-407C-898D-9E9F08B31114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="6840" windowWidth="29040" windowHeight="15840" tabRatio="941" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11511" yWindow="5863" windowWidth="16200" windowHeight="8494" tabRatio="941" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Connections" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="87">
   <si>
     <t>connection</t>
   </si>
@@ -238,6 +238,54 @@
   </si>
   <si>
     <t>Efficiency2</t>
+  </si>
+  <si>
+    <t>EC_Elec_Comp_ALK</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>Nygeun</t>
+  </si>
+  <si>
+    <t>EC_Elec_Comp_PEM</t>
+  </si>
+  <si>
+    <t>EC_H2_Stor</t>
+  </si>
+  <si>
+    <t>EC_FCH</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/todayinenergy/detail.php?id=35872</t>
+  </si>
+  <si>
+    <t>EIA</t>
+  </si>
+  <si>
+    <t>EC_CT</t>
+  </si>
+  <si>
+    <t>NREL ATB</t>
+  </si>
+  <si>
+    <t>ELC_CENTRAL</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>NATGAS_TAXED</t>
+  </si>
+  <si>
+    <t>McPherson et al</t>
   </si>
 </sst>
 </file>
@@ -261,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +319,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -296,6 +404,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -972,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1064,6 +1182,143 @@
         <v>38</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1072,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1154,6 +1409,126 @@
         <v>44</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="8">
+        <v>50</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="10">
+        <v>62</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="11">
+        <v>20</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="8">
+        <v>50</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10">
+        <v>64</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="11">
+        <v>20</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="12">
+        <v>50</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="13">
+        <v>100</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="11">
+        <v>20</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="8">
+        <v>81</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="13">
+        <v>53</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="11">
+        <v>20</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="8">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="13">
+        <v>36</v>
+      </c>
+      <c r="E7" s="13">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="11">
+        <v>55</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1162,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD7"/>
+      <selection activeCell="A3" sqref="A3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1260,6 +1635,121 @@
         <v>44</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="10">
+        <v>695.7</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="10">
+        <v>180</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="10">
+        <v>916.44</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="10">
+        <v>180</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="13">
+        <v>514</v>
+      </c>
+      <c r="C5" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="13">
+        <v>7339</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="13">
+        <v>30.65</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="13">
+        <v>983</v>
+      </c>
+      <c r="C7" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>11</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1268,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD7"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1351,6 +1841,31 @@
         <v>44</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
